--- a/Output_testing/R1_201907/Country/HKD/MN/SAN MARINO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SAN MARINO_201907_HKD_MN.xlsx
@@ -544,26 +544,34 @@
       <c r="C7" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.163632</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.321415</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
       <c r="J7" s="9" t="n">
@@ -625,8 +633,10 @@
       <c r="F9" s="8" t="n">
         <v>0.793136</v>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.3435</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>187.3241050600194</v>
@@ -650,17 +660,25 @@
       <c r="C10" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0.262021</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.119406</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.203271</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.395029</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-54.42884348964397</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SAN MARINO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SAN MARINO_201907_HKD_MN.xlsx
@@ -832,136 +832,509 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>3.445584828196942</v>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>3.987996334099205</v>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0.8675031051235208</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>0.503932</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>21.75669281276012</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>833.5877579754715</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.696727</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>10.48246823598195</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0.931098</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.62097541267906</v>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.552905134787845</v>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.73961668514508</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>92.25147493931931</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.960027791682144</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.7181156680814641</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.240002575307629</v>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>10.61299982385063</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-22.23593053051153</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.641566</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>9.652554323696366</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.654188933178187</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.512259</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.870960992137263</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.967003077433192</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-7.59442961657294</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.238364828416604</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.394457640261705</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.740706760987308</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.806834941128116</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>40.18049257579798</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.708976</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>46.29149552701941</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.981144</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>53.39932559131477</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.126328459867301</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-93.54770503118858</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.4706106429952974</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.153196420368395</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.563249831288935</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.302770333529164</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>4.022077388291939</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>112.8982128982129</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1389433654204492</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7071698863947677</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.184821244141846</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.922777495708517</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-51.56432413414432</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.584514</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>23.83949190209179</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>5.235004185482199</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.963900088794461</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>3.25539586981525</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>48.4437444630377</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>3.140021</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>47.24256472451375</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1.828977</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>22.82734658151506</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1.595944</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>21.40649353088089</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>12.63707702563146</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-65.15962543579928</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -993,136 +1366,625 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>96.42551579153222</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, TANNED OR DRESSED, OTHER THAN THOSE OF ITEMS 848 31 AND 848 32</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1154,136 +2016,509 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>3.445584828196942</v>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>3.987996334099205</v>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>0.8869703836699586</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>0.503932</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.26226926896467</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>833.5877579754715</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.960027791682144</v>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.7181156680814641</v>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.335150720234872</v>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.32303372617118</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-22.23593053051153</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.641566</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>9.652554323696366</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.654188933178187</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>0.512259</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.025149387228483</v>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.250697187338485</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-7.59442961657294</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.238364828416604</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.394457640261705</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.779769241782674</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.903595396232506</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>40.18049257579798</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.708976</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>46.29149552701941</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3.981144</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>54.59763778102161</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>7.113441390895633</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-93.54770503118858</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.696727</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>10.48246823598195</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.931098</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>11.62097541267906</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.388575751242356</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.646427889298231</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>81.26005793369811</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.4811714218789685</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.822385791865956</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.563249831288935</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.332005264003836</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>4.6701400290054</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>112.8982128982129</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1389433654204492</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.7071698863947677</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.278731087628987</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>4.554840307379031</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-51.56432413414432</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.584514</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>23.83949190209179</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>5.235004185482199</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.007971158788489</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>3.779925917422339</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>48.4437444630377</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>3.140021</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>47.24256472451375</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1.828977</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>22.82734658151506</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1.595944</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.88686780251977</v>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>14.67324309542656</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-65.15962543579928</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1315,136 +2550,585 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>1.612838898869303</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>99.56331877729258</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.9677409199520223</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.5832297186604145</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0.4366812227074235</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, TANNED OR DRESSED, OTHER THAN THOSE OF ITEMS 848 31 AND 848 32</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3.546886</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>77.72494172085528</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.643124</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>81.08621976558875</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>12.85227249803312</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.891892437110407</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.494202764528588</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.169615299267717</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>9.844562651121471</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.765054514393053</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.329456530266368</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.431986189190386</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.572865</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>99.03225908004798</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.213727012115137</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
